--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251014_201619.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251014_201619.xlsx
@@ -5183,7 +5183,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
